--- a/newsweb.xlsx
+++ b/newsweb.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB55CCB-E804-48AA-82CB-C524E218BB9F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用例图" sheetId="1" r:id="rId1"/>
     <sheet name="ER图" sheetId="3" r:id="rId2"/>
     <sheet name="数据库" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>fieldname</t>
   </si>
@@ -45,49 +44,13 @@
     <t>name</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>create_time</t>
-  </si>
-  <si>
-    <t>create_name</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>NEWS</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>type_id</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>news_time</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>update_time</t>
   </si>
   <si>
     <t>密码</t>
   </si>
   <si>
     <t>权限种别</t>
-  </si>
-  <si>
-    <t>authority_type</t>
   </si>
   <si>
     <t>创建时间</t>
@@ -117,9 +80,6 @@
     <t>标题</t>
   </si>
   <si>
-    <t>新闻时间</t>
-  </si>
-  <si>
     <t>新闻作者</t>
   </si>
   <si>
@@ -140,16 +100,124 @@
   <si>
     <t>新闻ID</t>
   </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>AUTHORITY_TYPE</t>
+  </si>
+  <si>
+    <t>CREATE_TIME</t>
+  </si>
+  <si>
+    <t>CREATE_NAME</t>
+  </si>
+  <si>
+    <t>UPDATE_TIME</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>TYPE_ID</t>
+  </si>
+  <si>
+    <t>AUTHOR</t>
+  </si>
+  <si>
+    <t>CONTENT</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEWS_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>65 535</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>⭕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -157,8 +225,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -203,14 +278,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -245,7 +326,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B3B638-AE4A-4E3F-8476-8ABDDA5FD6A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18B3B638-AE4A-4E3F-8476-8ABDDA5FD6A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -313,7 +394,7 @@
         <xdr:cNvPr id="3" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0EB21B6-954D-42A7-AE65-033F90A2E8E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0EB21B6-954D-42A7-AE65-033F90A2E8E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -393,7 +474,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4B4C8C-C2D7-4C25-BCD2-41745C8C7955}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B4B4C8C-C2D7-4C25-BCD2-41745C8C7955}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -449,7 +530,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BFF9B5E-2780-4A6E-9EFC-5588D02F8215}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BFF9B5E-2780-4A6E-9EFC-5588D02F8215}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -504,7 +585,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FA11E7-FBFC-46BC-8D69-77CF25F69E90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04FA11E7-FBFC-46BC-8D69-77CF25F69E90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -559,7 +640,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{229A6486-CDE4-4F32-9C15-FC265EDA142B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{229A6486-CDE4-4F32-9C15-FC265EDA142B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -615,7 +696,7 @@
         <xdr:cNvPr id="33" name="Oval 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB1FFDD-E592-434E-8D82-0A0E7A53D6FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CB1FFDD-E592-434E-8D82-0A0E7A53D6FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -679,7 +760,7 @@
         <xdr:cNvPr id="41" name="Oval 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69673559-0CC4-4547-B29E-6BDEF0BEEFA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69673559-0CC4-4547-B29E-6BDEF0BEEFA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -743,7 +824,7 @@
         <xdr:cNvPr id="42" name="Oval 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C24741-62EA-450C-9E1E-19692D0E6F19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56C24741-62EA-450C-9E1E-19692D0E6F19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -807,7 +888,7 @@
         <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120627AC-7C4E-443A-AE0F-03AFA4D18EB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{120627AC-7C4E-443A-AE0F-03AFA4D18EB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -864,7 +945,7 @@
         <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA45FC1-E93D-43D3-A955-2A4DB83129E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFA45FC1-E93D-43D3-A955-2A4DB83129E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -921,7 +1002,7 @@
         <xdr:cNvPr id="52" name="Oval 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D4AF1B-E75B-44EA-B6DB-22D425923C9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05D4AF1B-E75B-44EA-B6DB-22D425923C9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,7 +1064,7 @@
         <xdr:cNvPr id="58" name="Oval 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A220033-CF47-4AC2-A65A-220D5C886C1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A220033-CF47-4AC2-A65A-220D5C886C1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1059,7 +1140,7 @@
         <xdr:cNvPr id="59" name="Oval 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D6D0E3-481B-40F2-A245-81A521EBA8D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93D6D0E3-481B-40F2-A245-81A521EBA8D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,7 +1220,7 @@
         <xdr:cNvPr id="60" name="Oval 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C67FFBA8-B22D-4D0D-9ABA-58E54523ECA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C67FFBA8-B22D-4D0D-9ABA-58E54523ECA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1219,7 +1300,7 @@
         <xdr:cNvPr id="61" name="Oval 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D62288-05F4-4CFE-850E-0FFD04327538}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98D62288-05F4-4CFE-850E-0FFD04327538}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1283,7 +1364,7 @@
         <xdr:cNvPr id="62" name="Oval 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3711FDA8-3D4E-47CC-883D-B3090E5AB93B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3711FDA8-3D4E-47CC-883D-B3090E5AB93B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1428,7 @@
         <xdr:cNvPr id="63" name="Oval 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85A6671-1A14-4543-9EE8-D619636E8284}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E85A6671-1A14-4543-9EE8-D619636E8284}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,7 +1492,7 @@
         <xdr:cNvPr id="64" name="Oval 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{704BF7BF-000B-4C3A-BCC1-0C4C16D2CA75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{704BF7BF-000B-4C3A-BCC1-0C4C16D2CA75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1475,7 +1556,7 @@
         <xdr:cNvPr id="67" name="Straight Arrow Connector 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9C5994-9FD0-4152-9E52-FB7A68B4BAAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC9C5994-9FD0-4152-9E52-FB7A68B4BAAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,7 +1613,7 @@
         <xdr:cNvPr id="70" name="Straight Arrow Connector 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3E95C6-F738-405E-B3E9-56F73B8A15B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C3E95C6-F738-405E-B3E9-56F73B8A15B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1589,7 +1670,7 @@
         <xdr:cNvPr id="73" name="Straight Arrow Connector 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07FFB0D-052D-48AF-8589-6F4C2CB1EC32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B07FFB0D-052D-48AF-8589-6F4C2CB1EC32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1727,7 @@
         <xdr:cNvPr id="76" name="Straight Arrow Connector 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB9B0C7-463A-4287-B98F-8D06FB375E02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFB9B0C7-463A-4287-B98F-8D06FB375E02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1703,7 +1784,7 @@
         <xdr:cNvPr id="79" name="Straight Arrow Connector 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28A4471-1E28-491F-94FD-661294D4D77E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E28A4471-1E28-491F-94FD-661294D4D77E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1760,7 +1841,7 @@
         <xdr:cNvPr id="87" name="Oval 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74CCD8F5-C1DA-457D-BE40-3E30C33626A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74CCD8F5-C1DA-457D-BE40-3E30C33626A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1822,7 +1903,7 @@
         <xdr:cNvPr id="88" name="Straight Arrow Connector 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65261844-245D-495E-8086-4A477957774B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65261844-245D-495E-8086-4A477957774B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1960,7 @@
         <xdr:cNvPr id="110" name="Oval 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C33E980-8161-40A1-A36D-370A1D07BCC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C33E980-8161-40A1-A36D-370A1D07BCC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +2024,7 @@
         <xdr:cNvPr id="111" name="Oval 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308F2CBA-6212-4A64-B2C7-CBFD98F74678}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{308F2CBA-6212-4A64-B2C7-CBFD98F74678}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2088,7 @@
         <xdr:cNvPr id="112" name="Oval 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6154CDEB-429B-410B-82D9-CD63F078C49E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6154CDEB-429B-410B-82D9-CD63F078C49E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,7 +2152,7 @@
         <xdr:cNvPr id="113" name="Oval 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496184D4-9AC6-4DFD-9CA6-47B7D1A1D022}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{496184D4-9AC6-4DFD-9CA6-47B7D1A1D022}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,7 +2216,7 @@
         <xdr:cNvPr id="118" name="Straight Arrow Connector 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF0FB0DE-C1E7-487E-A5E7-1B5ACC9E7100}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF0FB0DE-C1E7-487E-A5E7-1B5ACC9E7100}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2195,7 +2276,7 @@
         <xdr:cNvPr id="119" name="Straight Arrow Connector 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FA57C8-594D-43FD-B376-948AA5F01FF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0FA57C8-594D-43FD-B376-948AA5F01FF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2336,7 @@
         <xdr:cNvPr id="120" name="Straight Arrow Connector 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4AE9EA-4714-4031-ABDF-7F4A83901ABE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C4AE9EA-4714-4031-ABDF-7F4A83901ABE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,7 +2396,7 @@
         <xdr:cNvPr id="121" name="Straight Arrow Connector 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89817E37-2A74-4170-93E0-3B632980364E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89817E37-2A74-4170-93E0-3B632980364E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2456,7 @@
         <xdr:cNvPr id="138" name="Straight Arrow Connector 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E31D200-4476-46F3-8D4A-1303DB70208D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E31D200-4476-46F3-8D4A-1303DB70208D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2513,7 @@
         <xdr:cNvPr id="141" name="Oval 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032B9D66-0D26-454B-AB85-D9E673DE51D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{032B9D66-0D26-454B-AB85-D9E673DE51D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2577,7 @@
         <xdr:cNvPr id="147" name="TextBox 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07FC6894-1D42-4A8B-8B50-51B86DE8D03C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07FC6894-1D42-4A8B-8B50-51B86DE8D03C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2567,7 +2648,7 @@
         <xdr:cNvPr id="149" name="TextBox 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{909FDED2-DE69-40DC-9B42-623A38B635DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{909FDED2-DE69-40DC-9B42-623A38B635DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2719,7 @@
         <xdr:cNvPr id="150" name="TextBox 149">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D732F273-1056-4DA2-B6DD-8D55F9C1238D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D732F273-1056-4DA2-B6DD-8D55F9C1238D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2790,7 @@
         <xdr:cNvPr id="151" name="TextBox 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E0ED44-F0A4-4E50-8964-239B9AF61138}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4E0ED44-F0A4-4E50-8964-239B9AF61138}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2780,7 +2861,7 @@
         <xdr:cNvPr id="152" name="TextBox 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA72A05B-481D-4BC7-8F0C-4A17238B9766}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA72A05B-481D-4BC7-8F0C-4A17238B9766}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2851,7 +2932,7 @@
         <xdr:cNvPr id="153" name="TextBox 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF15F75-C7B9-44E7-90C2-2CA943649596}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FF15F75-C7B9-44E7-90C2-2CA943649596}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,7 +3003,7 @@
         <xdr:cNvPr id="154" name="TextBox 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B86A0DE-4C83-4BCB-ACDB-F3560FC9CE18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B86A0DE-4C83-4BCB-ACDB-F3560FC9CE18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,7 +3074,7 @@
         <xdr:cNvPr id="155" name="TextBox 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{395D1859-FBB9-4D8F-AF63-996AC06D0AB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{395D1859-FBB9-4D8F-AF63-996AC06D0AB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3044,6 +3125,1648 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="流程图: 过程 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="1457326"/>
+          <a:ext cx="819150" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="流程图: 决策 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3609975" y="1362075"/>
+          <a:ext cx="1609725" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>增删改</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接连接符 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="1638301"/>
+          <a:ext cx="904875" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="流程图: 过程 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="1457325"/>
+          <a:ext cx="819150" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>新闻种类</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="流程图: 过程 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4010025" y="3219450"/>
+          <a:ext cx="819150" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>新闻</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接连接符 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5219700" y="1638300"/>
+          <a:ext cx="1104900" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>300038</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4414838" y="1933575"/>
+          <a:ext cx="4762" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="椭圆 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="542925"/>
+          <a:ext cx="1028700" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="椭圆 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="1104900"/>
+          <a:ext cx="1028700" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户名</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="椭圆 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="1847850"/>
+          <a:ext cx="1028700" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>密码</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="椭圆 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="2409825"/>
+          <a:ext cx="1028700" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>权限</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="椭圆 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="523875"/>
+          <a:ext cx="1028700" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>种类</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="椭圆 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="1447800"/>
+          <a:ext cx="1143000" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>种类详细</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="椭圆 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="2981325"/>
+          <a:ext cx="1028700" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>标题</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="椭圆 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="3667125"/>
+          <a:ext cx="1028700" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>作者</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="椭圆 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276850" y="4648200"/>
+          <a:ext cx="1028700" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>时间</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="椭圆 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905250" y="4648200"/>
+          <a:ext cx="1028700" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>内容</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="椭圆 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="3505200"/>
+          <a:ext cx="1028700" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>种类</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="椭圆 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2533650" y="4648200"/>
+          <a:ext cx="1028700" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接连接符 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="0"/>
+          <a:endCxn id="18" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2295525" y="990600"/>
+          <a:ext cx="38100" cy="466726"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直接连接符 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2295525" y="1819276"/>
+          <a:ext cx="0" cy="590549"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接连接符 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="6"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1495425" y="1638301"/>
+          <a:ext cx="390525" cy="433387"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接连接符 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="6"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="1328738"/>
+          <a:ext cx="371475" cy="309563"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直接连接符 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3476625" y="3400425"/>
+          <a:ext cx="533400" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接连接符 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="0"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3048000" y="3581400"/>
+          <a:ext cx="1371600" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直接连接符 49"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="0"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4419600" y="3581400"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直接连接符 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="0"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4419600" y="3581400"/>
+          <a:ext cx="1371600" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直接连接符 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="2"/>
+          <a:endCxn id="9" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4829175" y="3205163"/>
+          <a:ext cx="571500" cy="195262"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直接连接符 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="2"/>
+          <a:endCxn id="9" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4829175" y="3400425"/>
+          <a:ext cx="990600" cy="490538"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直接连接符 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="2"/>
+          <a:endCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7143750" y="1638300"/>
+          <a:ext cx="400050" cy="33338"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直接连接符 70"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="22" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6734175" y="971550"/>
+          <a:ext cx="0" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3311,49 +5034,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE84C63-7A65-419F-AC96-FA8145DDA2CA}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B0DDD5-E73A-43DB-8E85-35EECB80685E}">
-  <dimension ref="A2:I27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="11.5" style="2"/>
+    <col min="2" max="2" width="16.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3370,216 +5105,525 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E3" s="2">
         <v>8</v>
       </c>
+      <c r="F3" s="2">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E4" s="2">
         <v>32</v>
       </c>
+      <c r="F4" s="2">
+        <v>64</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E5" s="2">
         <v>8</v>
       </c>
+      <c r="F5" s="2">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
       </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="F7" s="3">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3">
+        <v>64</v>
+      </c>
+      <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3">
+        <v>64</v>
+      </c>
+      <c r="G10" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3">
+        <v>8</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="3">
+        <v>32</v>
+      </c>
+      <c r="F15" s="3">
+        <v>64</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="2">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3">
+        <v>8</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="3">
+        <v>32</v>
+      </c>
+      <c r="F17" s="3">
+        <v>64</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3">
+        <v>8</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="3">
+        <v>128</v>
+      </c>
+      <c r="F21" s="3">
+        <v>256</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="3">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3">
+        <v>8</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="3">
+        <v>32</v>
+      </c>
+      <c r="F24" s="3">
+        <v>64</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3">
+        <v>8</v>
+      </c>
+      <c r="G26" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="D27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="3">
+        <v>32</v>
+      </c>
+      <c r="F27" s="3">
+        <v>64</v>
+      </c>
+      <c r="G27" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="2">
+        <v>8</v>
+      </c>
+      <c r="F28" s="3">
+        <v>8</v>
+      </c>
+      <c r="G28" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F29" s="3">
+        <v>64</v>
+      </c>
+      <c r="G29" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/newsweb.xlsx
+++ b/newsweb.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ACF4EB-DAA6-492F-AB25-E9DCF552F32B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用例图" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
   <si>
     <t>fieldname</t>
   </si>
@@ -174,10 +175,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TEXT</t>
   </si>
   <si>
@@ -208,16 +205,22 @@
     <t>UPDATE_NAME</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>UPDATE_NAME</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -225,13 +228,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -291,7 +294,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -326,7 +329,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18B3B638-AE4A-4E3F-8476-8ABDDA5FD6A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B3B638-AE4A-4E3F-8476-8ABDDA5FD6A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -394,7 +397,7 @@
         <xdr:cNvPr id="3" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0EB21B6-954D-42A7-AE65-033F90A2E8E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0EB21B6-954D-42A7-AE65-033F90A2E8E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -474,7 +477,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B4B4C8C-C2D7-4C25-BCD2-41745C8C7955}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4B4C8C-C2D7-4C25-BCD2-41745C8C7955}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -530,7 +533,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BFF9B5E-2780-4A6E-9EFC-5588D02F8215}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BFF9B5E-2780-4A6E-9EFC-5588D02F8215}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -585,7 +588,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04FA11E7-FBFC-46BC-8D69-77CF25F69E90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FA11E7-FBFC-46BC-8D69-77CF25F69E90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -640,7 +643,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{229A6486-CDE4-4F32-9C15-FC265EDA142B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{229A6486-CDE4-4F32-9C15-FC265EDA142B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -696,7 +699,7 @@
         <xdr:cNvPr id="33" name="Oval 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CB1FFDD-E592-434E-8D82-0A0E7A53D6FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB1FFDD-E592-434E-8D82-0A0E7A53D6FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -760,7 +763,7 @@
         <xdr:cNvPr id="41" name="Oval 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69673559-0CC4-4547-B29E-6BDEF0BEEFA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69673559-0CC4-4547-B29E-6BDEF0BEEFA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -824,7 +827,7 @@
         <xdr:cNvPr id="42" name="Oval 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56C24741-62EA-450C-9E1E-19692D0E6F19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C24741-62EA-450C-9E1E-19692D0E6F19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -888,7 +891,7 @@
         <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{120627AC-7C4E-443A-AE0F-03AFA4D18EB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120627AC-7C4E-443A-AE0F-03AFA4D18EB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -945,7 +948,7 @@
         <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFA45FC1-E93D-43D3-A955-2A4DB83129E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA45FC1-E93D-43D3-A955-2A4DB83129E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1002,7 +1005,7 @@
         <xdr:cNvPr id="52" name="Oval 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05D4AF1B-E75B-44EA-B6DB-22D425923C9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D4AF1B-E75B-44EA-B6DB-22D425923C9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1064,7 +1067,7 @@
         <xdr:cNvPr id="58" name="Oval 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A220033-CF47-4AC2-A65A-220D5C886C1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A220033-CF47-4AC2-A65A-220D5C886C1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1140,7 +1143,7 @@
         <xdr:cNvPr id="59" name="Oval 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93D6D0E3-481B-40F2-A245-81A521EBA8D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D6D0E3-481B-40F2-A245-81A521EBA8D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1220,7 +1223,7 @@
         <xdr:cNvPr id="60" name="Oval 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C67FFBA8-B22D-4D0D-9ABA-58E54523ECA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C67FFBA8-B22D-4D0D-9ABA-58E54523ECA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1300,7 +1303,7 @@
         <xdr:cNvPr id="61" name="Oval 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98D62288-05F4-4CFE-850E-0FFD04327538}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D62288-05F4-4CFE-850E-0FFD04327538}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1364,7 +1367,7 @@
         <xdr:cNvPr id="62" name="Oval 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3711FDA8-3D4E-47CC-883D-B3090E5AB93B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3711FDA8-3D4E-47CC-883D-B3090E5AB93B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1428,7 +1431,7 @@
         <xdr:cNvPr id="63" name="Oval 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E85A6671-1A14-4543-9EE8-D619636E8284}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85A6671-1A14-4543-9EE8-D619636E8284}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1492,7 +1495,7 @@
         <xdr:cNvPr id="64" name="Oval 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{704BF7BF-000B-4C3A-BCC1-0C4C16D2CA75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{704BF7BF-000B-4C3A-BCC1-0C4C16D2CA75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1556,7 +1559,7 @@
         <xdr:cNvPr id="67" name="Straight Arrow Connector 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC9C5994-9FD0-4152-9E52-FB7A68B4BAAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9C5994-9FD0-4152-9E52-FB7A68B4BAAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1616,7 @@
         <xdr:cNvPr id="70" name="Straight Arrow Connector 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C3E95C6-F738-405E-B3E9-56F73B8A15B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3E95C6-F738-405E-B3E9-56F73B8A15B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,7 +1673,7 @@
         <xdr:cNvPr id="73" name="Straight Arrow Connector 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B07FFB0D-052D-48AF-8589-6F4C2CB1EC32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07FFB0D-052D-48AF-8589-6F4C2CB1EC32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1727,7 +1730,7 @@
         <xdr:cNvPr id="76" name="Straight Arrow Connector 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFB9B0C7-463A-4287-B98F-8D06FB375E02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB9B0C7-463A-4287-B98F-8D06FB375E02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1787,7 @@
         <xdr:cNvPr id="79" name="Straight Arrow Connector 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E28A4471-1E28-491F-94FD-661294D4D77E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28A4471-1E28-491F-94FD-661294D4D77E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1841,7 +1844,7 @@
         <xdr:cNvPr id="87" name="Oval 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74CCD8F5-C1DA-457D-BE40-3E30C33626A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74CCD8F5-C1DA-457D-BE40-3E30C33626A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1903,7 +1906,7 @@
         <xdr:cNvPr id="88" name="Straight Arrow Connector 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65261844-245D-495E-8086-4A477957774B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65261844-245D-495E-8086-4A477957774B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1960,7 +1963,7 @@
         <xdr:cNvPr id="110" name="Oval 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C33E980-8161-40A1-A36D-370A1D07BCC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C33E980-8161-40A1-A36D-370A1D07BCC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2024,7 +2027,7 @@
         <xdr:cNvPr id="111" name="Oval 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{308F2CBA-6212-4A64-B2C7-CBFD98F74678}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308F2CBA-6212-4A64-B2C7-CBFD98F74678}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2088,7 +2091,7 @@
         <xdr:cNvPr id="112" name="Oval 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6154CDEB-429B-410B-82D9-CD63F078C49E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6154CDEB-429B-410B-82D9-CD63F078C49E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2155,7 @@
         <xdr:cNvPr id="113" name="Oval 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{496184D4-9AC6-4DFD-9CA6-47B7D1A1D022}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496184D4-9AC6-4DFD-9CA6-47B7D1A1D022}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2219,7 @@
         <xdr:cNvPr id="118" name="Straight Arrow Connector 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF0FB0DE-C1E7-487E-A5E7-1B5ACC9E7100}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF0FB0DE-C1E7-487E-A5E7-1B5ACC9E7100}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2276,7 +2279,7 @@
         <xdr:cNvPr id="119" name="Straight Arrow Connector 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0FA57C8-594D-43FD-B376-948AA5F01FF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FA57C8-594D-43FD-B376-948AA5F01FF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2336,7 +2339,7 @@
         <xdr:cNvPr id="120" name="Straight Arrow Connector 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C4AE9EA-4714-4031-ABDF-7F4A83901ABE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4AE9EA-4714-4031-ABDF-7F4A83901ABE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2396,7 +2399,7 @@
         <xdr:cNvPr id="121" name="Straight Arrow Connector 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89817E37-2A74-4170-93E0-3B632980364E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89817E37-2A74-4170-93E0-3B632980364E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2459,7 @@
         <xdr:cNvPr id="138" name="Straight Arrow Connector 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E31D200-4476-46F3-8D4A-1303DB70208D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E31D200-4476-46F3-8D4A-1303DB70208D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2513,7 +2516,7 @@
         <xdr:cNvPr id="141" name="Oval 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{032B9D66-0D26-454B-AB85-D9E673DE51D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032B9D66-0D26-454B-AB85-D9E673DE51D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,7 +2580,7 @@
         <xdr:cNvPr id="147" name="TextBox 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07FC6894-1D42-4A8B-8B50-51B86DE8D03C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07FC6894-1D42-4A8B-8B50-51B86DE8D03C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2648,7 +2651,7 @@
         <xdr:cNvPr id="149" name="TextBox 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{909FDED2-DE69-40DC-9B42-623A38B635DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{909FDED2-DE69-40DC-9B42-623A38B635DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2719,7 +2722,7 @@
         <xdr:cNvPr id="150" name="TextBox 149">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D732F273-1056-4DA2-B6DD-8D55F9C1238D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D732F273-1056-4DA2-B6DD-8D55F9C1238D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,7 +2793,7 @@
         <xdr:cNvPr id="151" name="TextBox 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4E0ED44-F0A4-4E50-8964-239B9AF61138}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E0ED44-F0A4-4E50-8964-239B9AF61138}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2861,7 +2864,7 @@
         <xdr:cNvPr id="152" name="TextBox 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA72A05B-481D-4BC7-8F0C-4A17238B9766}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA72A05B-481D-4BC7-8F0C-4A17238B9766}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2932,7 +2935,7 @@
         <xdr:cNvPr id="153" name="TextBox 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FF15F75-C7B9-44E7-90C2-2CA943649596}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF15F75-C7B9-44E7-90C2-2CA943649596}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3003,7 +3006,7 @@
         <xdr:cNvPr id="154" name="TextBox 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B86A0DE-4C83-4BCB-ACDB-F3560FC9CE18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B86A0DE-4C83-4BCB-ACDB-F3560FC9CE18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3074,7 +3077,7 @@
         <xdr:cNvPr id="155" name="TextBox 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{395D1859-FBB9-4D8F-AF63-996AC06D0AB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{395D1859-FBB9-4D8F-AF63-996AC06D0AB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3147,7 +3150,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="流程图: 过程 1"/>
+        <xdr:cNvPr id="2" name="流程图: 过程 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3205,7 +3214,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="流程图: 决策 2"/>
+        <xdr:cNvPr id="3" name="流程图: 决策 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3267,7 +3282,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直接连接符 4"/>
+        <xdr:cNvPr id="5" name="直接连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -3314,7 +3335,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="流程图: 过程 7"/>
+        <xdr:cNvPr id="8" name="流程图: 过程 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3372,7 +3399,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="流程图: 过程 8"/>
+        <xdr:cNvPr id="9" name="流程图: 过程 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3430,7 +3463,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直接连接符 10"/>
+        <xdr:cNvPr id="11" name="直接连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="8" idx="1"/>
@@ -3477,7 +3516,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直接连接符 13"/>
+        <xdr:cNvPr id="14" name="直接连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
           <a:endCxn id="9" idx="0"/>
@@ -3524,7 +3569,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="椭圆 17"/>
+        <xdr:cNvPr id="18" name="椭圆 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3582,7 +3633,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="椭圆 18"/>
+        <xdr:cNvPr id="19" name="椭圆 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3640,7 +3697,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="椭圆 19"/>
+        <xdr:cNvPr id="20" name="椭圆 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3697,7 +3760,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="椭圆 20"/>
+        <xdr:cNvPr id="21" name="椭圆 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3754,7 +3823,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="椭圆 21"/>
+        <xdr:cNvPr id="22" name="椭圆 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3816,7 +3891,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="椭圆 22"/>
+        <xdr:cNvPr id="23" name="椭圆 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3873,7 +3954,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="椭圆 23"/>
+        <xdr:cNvPr id="24" name="椭圆 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3930,7 +4017,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="椭圆 24"/>
+        <xdr:cNvPr id="25" name="椭圆 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3987,7 +4080,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="椭圆 25"/>
+        <xdr:cNvPr id="26" name="椭圆 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4044,7 +4143,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="椭圆 26"/>
+        <xdr:cNvPr id="27" name="椭圆 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4101,7 +4206,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="椭圆 28"/>
+        <xdr:cNvPr id="29" name="椭圆 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4163,7 +4274,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="椭圆 29"/>
+        <xdr:cNvPr id="30" name="椭圆 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4221,7 +4338,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直接连接符 31"/>
+        <xdr:cNvPr id="32" name="直接连接符 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="0"/>
           <a:endCxn id="18" idx="4"/>
@@ -4268,7 +4391,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直接连接符 33"/>
+        <xdr:cNvPr id="34" name="直接连接符 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="0"/>
           <a:endCxn id="2" idx="2"/>
@@ -4315,7 +4444,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直接连接符 36"/>
+        <xdr:cNvPr id="37" name="直接连接符 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="20" idx="6"/>
           <a:endCxn id="2" idx="1"/>
@@ -4362,7 +4497,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直接连接符 39"/>
+        <xdr:cNvPr id="40" name="直接连接符 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="6"/>
           <a:endCxn id="2" idx="1"/>
@@ -4409,7 +4550,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直接连接符 42"/>
+        <xdr:cNvPr id="43" name="直接连接符 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="9" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -4455,7 +4602,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直接连接符 46"/>
+        <xdr:cNvPr id="47" name="直接连接符 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="30" idx="0"/>
           <a:endCxn id="9" idx="2"/>
@@ -4502,7 +4655,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直接连接符 49"/>
+        <xdr:cNvPr id="50" name="直接连接符 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="27" idx="0"/>
           <a:endCxn id="9" idx="2"/>
@@ -4549,7 +4708,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="直接连接符 53"/>
+        <xdr:cNvPr id="54" name="直接连接符 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="26" idx="0"/>
           <a:endCxn id="9" idx="2"/>
@@ -4596,7 +4761,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直接连接符 56"/>
+        <xdr:cNvPr id="57" name="直接连接符 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="24" idx="2"/>
           <a:endCxn id="9" idx="3"/>
@@ -4643,7 +4814,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="直接连接符 59"/>
+        <xdr:cNvPr id="60" name="直接连接符 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="25" idx="2"/>
           <a:endCxn id="9" idx="3"/>
@@ -4690,7 +4867,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="直接连接符 67"/>
+        <xdr:cNvPr id="68" name="直接连接符 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="23" idx="2"/>
           <a:endCxn id="8" idx="3"/>
@@ -4737,7 +4920,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="直接连接符 70"/>
+        <xdr:cNvPr id="71" name="直接连接符 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="8" idx="0"/>
           <a:endCxn id="22" idx="4"/>
@@ -5034,14 +5223,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5051,14 +5240,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5067,28 +5256,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="2"/>
-    <col min="2" max="2" width="16.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="2"/>
+    <col min="2" max="2" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="11.5" style="2"/>
+    <col min="7" max="7" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5117,7 +5306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -5128,7 +5317,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2">
         <v>8</v>
@@ -5137,18 +5326,18 @@
         <v>8</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -5164,18 +5353,18 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2">
         <v>8</v>
@@ -5185,10 +5374,10 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
@@ -5206,10 +5395,10 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
@@ -5227,7 +5416,7 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
@@ -5245,7 +5434,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
@@ -5263,9 +5452,9 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -5281,13 +5470,13 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -5298,7 +5487,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3">
         <v>4</v>
@@ -5307,16 +5496,16 @@
         <v>4</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
@@ -5324,7 +5513,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3">
         <v>8</v>
@@ -5334,10 +5523,10 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
@@ -5354,11 +5543,9 @@
         <v>8</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
@@ -5376,7 +5563,7 @@
       </c>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
@@ -5394,9 +5581,9 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
@@ -5412,19 +5599,19 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -5435,7 +5622,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="3">
         <v>8</v>
@@ -5444,16 +5631,16 @@
         <v>8</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="I20" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
@@ -5471,10 +5658,10 @@
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
@@ -5492,10 +5679,10 @@
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
@@ -5513,7 +5700,7 @@
       </c>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
@@ -5531,7 +5718,7 @@
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="B25" s="2" t="s">
         <v>36</v>
       </c>
@@ -5539,18 +5726,18 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
@@ -5568,7 +5755,7 @@
       </c>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
@@ -5586,7 +5773,7 @@
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
@@ -5604,7 +5791,7 @@
       </c>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
